--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="174">
+  <si>
+    <t>patient_number</t>
+  </si>
   <si>
     <t>patient</t>
   </si>
@@ -520,19 +523,19 @@
     <t>chb24_21</t>
   </si>
   <si>
-    <t>['F7-T7', 'P8-O2', 'T7-P7', 'FP1-F3', 'P7-T7', 'FP2-F8', 'C4-P4', 'FT9-FT10', 'FZ-CZ', 'P4-O2', 'F8-T8', 'P3-O1', 'T8-P8', 'F4-C4', 'FP1-F7', 'F3-C3', 'CZ-PZ', 'FT10-T8', 'P7-O1', 'C3-P3', 'FP2-F4', 'T7-FT9']</t>
-  </si>
-  <si>
-    <t>['-', 'F7-T7', 'P8-O2', 'T7-P7', 'FP1-F3', 'FP2-F8', 'P7-T7', 'C4-P4', 'FT9-FT10', 'FZ-CZ', 'P4-O2', 'F8-T8', 'P3-O1', 'T8-P8', 'F4-C4', 'FP1-F7', 'F3-C3', 'CZ-PZ', 'FT10-T8', 'P7-O1', 'C3-P3', 'FP2-F4', 'T7-FT9']</t>
-  </si>
-  <si>
-    <t>['-', 'F7-T7', 'P8-O2', 'T7-P7', 'FP1-F3', 'FP2-F8', 'C4-P4', 'FZ-CZ', 'P4-O2', 'CP6-Ref', 'CP2-Ref', 'FC2-Ref', 'F8-T8', 'P3-O1', 'T8-P8', 'FC1-Ref', 'F4-C4', 'FP1-F7', 'F3-C3', 'CP1-Ref', 'FC6-Ref', 'CP5-Ref', 'CZ-PZ', 'P7-O1', 'C3-P3', 'FP2-F4', 'FC5-Ref']</t>
-  </si>
-  <si>
-    <t>['-', 'F7-T7', 'P8-O2', 'T7-P7', 'FP1-F3', 'FP2-F8', 'C4-P4', 'FZ-CZ', 'P4-O2', 'F8-T8', 'P3-O1', 'T8-P8', 'F4-C4', 'FP1-F7', 'F3-C3', 'CZ-PZ', 'P7-O1', 'C3-P3', 'FP2-F4']</t>
-  </si>
-  <si>
-    <t>['F7-T7', 'P8-O2', 'T7-P7', 'FP1-F3', 'FP2-F8', 'P7-T7', 'C4-P4', 'FT9-FT10', 'FZ-CZ', 'P4-O2', 'F8-T8', 'P3-O1', 'T8-P8', 'F4-C4', 'FP1-F7', 'F3-C3', '.', 'CZ-PZ', 'FT10-T8', 'P7-O1', 'C3-P3', 'FP2-F4', 'T7-FT9']</t>
+    <t>['F7-T7', 'P3-O1', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
+  </si>
+  <si>
+    <t>['F7-T7', 'P3-O1', '-', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
+  </si>
+  <si>
+    <t>['F7-T7', 'P3-O1', 'FC2-Ref', '-', 'FP1-F7', 'FC6-Ref', 'P4-O2', 'CP6-Ref', 'FP1-F3', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'CZ-PZ', 'F3-C3', 'CP5-Ref', 'T7-P7', 'T8-P8', 'CP2-Ref', 'FP2-F4', 'FC5-Ref', 'CP1-Ref', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4', 'FC1-Ref']</t>
+  </si>
+  <si>
+    <t>['F7-T7', 'P3-O1', '-', 'FP1-F7', 'P4-O2', 'FP1-F3', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'CZ-PZ', 'F3-C3', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
+  </si>
+  <si>
+    <t>['F7-T7', 'P3-O1', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', '.', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
   </si>
 </sst>
 </file>
@@ -890,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,5828 +927,6377 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>2996</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3036</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1467</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1494</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1732</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1772</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1015</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1066</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>1720</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1810</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>327</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>420</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1862</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1963</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>130</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>212</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>2972</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3053</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>3369</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3378</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>169</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>362</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>414</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>731</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>796</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>432</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>501</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2162</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2214</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1982</v>
+      </c>
+      <c r="J16">
+        <v>2029</v>
+      </c>
+      <c r="K16">
         <v>47</v>
       </c>
-      <c r="E16">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1982</v>
-      </c>
-      <c r="I16">
-        <v>2029</v>
-      </c>
-      <c r="J16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
+      <c r="B17">
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2592</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2656</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>169</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>1725</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1778</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
+      <c r="B19">
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>7804</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7853</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
+      <c r="B20">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>169</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>6446</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6557</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
+      <c r="B21">
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>1679</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1781</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3782</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3898</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
+      <c r="B23">
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>417</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>532</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
+      <c r="B24">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>1086</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1196</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
+      <c r="B25">
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>2317</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2413</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>169</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>2451</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2571</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
+      <c r="B27">
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>169</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>2348</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2465</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1724</v>
+      </c>
+      <c r="J28">
+        <v>1738</v>
+      </c>
+      <c r="K28">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1724</v>
-      </c>
-      <c r="I28">
-        <v>1738</v>
-      </c>
-      <c r="J28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
+      <c r="B29">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7461</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7476</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
+      <c r="B30">
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13525</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>13540</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
+      <c r="B31">
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>169</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>327</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>347</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
+      <c r="B32">
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6211</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6231</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
+      <c r="B33">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>12500</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>12516</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
+      <c r="B34">
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>169</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>10833</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>10845</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
+      <c r="B35">
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>169</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>506</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>519</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="B36">
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>7799</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7811</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
+      <c r="B37">
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
       </c>
       <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>9387</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>9403</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
+      <c r="B38">
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>4920</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5006</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>15</v>
+      <c r="B39">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>3285</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3381</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>15</v>
+      <c r="B40">
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>169</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>13688</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>13831</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
+      <c r="B41">
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>169</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>2670</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2841</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
+      <c r="B42">
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>2856</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>3046</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
+      <c r="B43">
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>2988</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3122</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
+      <c r="B44">
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>169</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>2417</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2577</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>16</v>
+      <c r="B45">
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>169</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>2083</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2347</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>17</v>
+      <c r="B46">
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>12231</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>12295</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>17</v>
+      <c r="B47">
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>2951</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>3030</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>17</v>
+      <c r="B48">
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48">
-        <v>22</v>
-      </c>
-      <c r="F48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48">
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>9196</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>9267</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>17</v>
+      <c r="B49">
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49">
-        <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>5299</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>5361</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
+      <c r="B50">
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>6313</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>6348</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>18</v>
+      <c r="B51">
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>6888</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>6958</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>18</v>
+      <c r="B52">
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52">
-        <v>22</v>
-      </c>
-      <c r="F52" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>2382</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2447</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>18</v>
+      <c r="B53">
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53">
-        <v>22</v>
-      </c>
-      <c r="F53" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>169</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>3021</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>3079</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>18</v>
+      <c r="B54">
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54">
-        <v>22</v>
-      </c>
-      <c r="F54" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>169</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>3801</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>3877</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
+      <c r="B55">
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>169</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>4618</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>4707</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
+      <c r="B56">
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>1383</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1437</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
+      <c r="B57">
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57">
-        <v>22</v>
-      </c>
-      <c r="F57" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>169</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>298</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>320</v>
       </c>
-      <c r="J57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>19</v>
+      <c r="B58">
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>2695</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>2727</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>19</v>
+      <c r="B59">
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>1454</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2206</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>752</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>20</v>
+      <c r="B60">
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60">
-        <v>23</v>
-      </c>
-      <c r="F60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>170</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>1665</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1726</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>20</v>
+      <c r="B61">
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61">
-        <v>23</v>
-      </c>
-      <c r="F61" t="s">
-        <v>169</v>
-      </c>
-      <c r="G61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61">
         <v>2</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>3415</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>3447</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>20</v>
+      <c r="B62">
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
-        <v>169</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>170</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>1426</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1439</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>20</v>
+      <c r="B63">
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63">
-        <v>23</v>
-      </c>
-      <c r="F63" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63">
         <v>2</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1591</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1614</v>
       </c>
-      <c r="J63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1957</v>
+      </c>
+      <c r="J64">
+        <v>1977</v>
+      </c>
+      <c r="K64">
         <v>20</v>
       </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64">
-        <v>23</v>
-      </c>
-      <c r="F64" t="s">
-        <v>169</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>1957</v>
-      </c>
-      <c r="I64">
-        <v>1977</v>
-      </c>
-      <c r="J64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>20</v>
+      <c r="B65">
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65">
-        <v>23</v>
-      </c>
-      <c r="F65" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65">
         <v>4</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>2798</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>2824</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>20</v>
+      <c r="B66">
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>170</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>3082</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>3114</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>20</v>
+      <c r="B67">
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67">
         <v>2</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>3503</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>3535</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>20</v>
+      <c r="B68">
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>170</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>593</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>625</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>20</v>
+      <c r="B69">
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69">
-        <v>23</v>
-      </c>
-      <c r="F69" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>170</v>
+      </c>
+      <c r="H69">
         <v>2</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>811</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>856</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>20</v>
+      <c r="B70">
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>169</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>170</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>1085</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1122</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>20</v>
+      <c r="B71">
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71">
-        <v>23</v>
-      </c>
-      <c r="F71" t="s">
-        <v>169</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>170</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>253</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>333</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>20</v>
+      <c r="B72">
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72">
-        <v>23</v>
-      </c>
-      <c r="F72" t="s">
-        <v>169</v>
-      </c>
-      <c r="G72">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>170</v>
+      </c>
+      <c r="H72">
         <v>2</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>425</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>522</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>20</v>
+      <c r="B73">
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73">
-        <v>23</v>
-      </c>
-      <c r="F73" t="s">
-        <v>169</v>
-      </c>
-      <c r="G73">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73">
         <v>3</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>630</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>670</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>20</v>
+      <c r="B74">
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74">
-        <v>23</v>
-      </c>
-      <c r="F74" t="s">
-        <v>169</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>170</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>2185</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>2206</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>20</v>
+      <c r="B75">
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75">
-        <v>23</v>
-      </c>
-      <c r="F75" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75">
         <v>2</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>2427</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>2450</v>
       </c>
-      <c r="J75">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>20</v>
+      <c r="B76">
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>169</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>170</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>653</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>680</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>20</v>
+      <c r="B77">
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>170</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>1548</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1573</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>20</v>
+      <c r="B78">
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78">
-        <v>23</v>
-      </c>
-      <c r="F78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G78">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78">
         <v>2</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2798</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>2821</v>
       </c>
-      <c r="J78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>20</v>
+      <c r="B79">
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79">
         <v>3</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>2966</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>3009</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>20</v>
+      <c r="B80">
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80">
-        <v>23</v>
-      </c>
-      <c r="F80" t="s">
-        <v>169</v>
-      </c>
-      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80">
         <v>4</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>3146</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>3201</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>20</v>
+      <c r="B81">
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81">
-        <v>23</v>
-      </c>
-      <c r="F81" t="s">
-        <v>169</v>
-      </c>
-      <c r="G81">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>170</v>
+      </c>
+      <c r="H81">
         <v>5</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>3364</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>3410</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>20</v>
+      <c r="B82">
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>170</v>
       </c>
       <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
         <v>699</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>750</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>20</v>
+      <c r="B83">
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83">
-        <v>23</v>
-      </c>
-      <c r="F83" t="s">
-        <v>169</v>
-      </c>
-      <c r="G83">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83">
         <v>2</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>945</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>973</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>20</v>
+      <c r="B84">
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>169</v>
-      </c>
-      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F84">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>170</v>
+      </c>
+      <c r="H84">
         <v>3</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>1170</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>1199</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>20</v>
+      <c r="B85">
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85">
-        <v>23</v>
-      </c>
-      <c r="F85" t="s">
-        <v>169</v>
-      </c>
-      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>1676</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1701</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>20</v>
+      <c r="B86">
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86">
-        <v>23</v>
-      </c>
-      <c r="F86" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>170</v>
+      </c>
+      <c r="H86">
         <v>5</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>2213</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>2236</v>
       </c>
-      <c r="J86">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>21</v>
+      <c r="B87">
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87">
-        <v>23</v>
-      </c>
-      <c r="F87" t="s">
-        <v>169</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>170</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>2077</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>2121</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>21</v>
+      <c r="B88">
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88">
-        <v>23</v>
-      </c>
-      <c r="F88" t="s">
-        <v>169</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>170</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>934</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>1004</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>21</v>
+      <c r="B89">
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89">
-        <v>23</v>
-      </c>
-      <c r="F89" t="s">
-        <v>169</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>170</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>142</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>173</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>21</v>
+      <c r="B90">
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G90">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>170</v>
+      </c>
+      <c r="H90">
         <v>2</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>530</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>594</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>21</v>
+      <c r="B91">
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91">
-        <v>23</v>
-      </c>
-      <c r="F91" t="s">
-        <v>169</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>170</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>458</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>478</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>21</v>
+      <c r="B92">
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92">
-        <v>23</v>
-      </c>
-      <c r="F92" t="s">
-        <v>169</v>
-      </c>
-      <c r="G92">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>170</v>
+      </c>
+      <c r="H92">
         <v>2</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>2436</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>2454</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>21</v>
+      <c r="B93">
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93">
-        <v>23</v>
-      </c>
-      <c r="F93" t="s">
-        <v>169</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>170</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>2474</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>2491</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>21</v>
+      <c r="B94">
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94">
-        <v>23</v>
-      </c>
-      <c r="F94" t="s">
-        <v>169</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>170</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>3339</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>3401</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>21</v>
+      <c r="B95">
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95">
-        <v>23</v>
-      </c>
-      <c r="F95" t="s">
-        <v>169</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>170</v>
       </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>638</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>660</v>
       </c>
-      <c r="J95">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>21</v>
+      <c r="B96">
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96">
-        <v>23</v>
-      </c>
-      <c r="F96" t="s">
-        <v>169</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>170</v>
       </c>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>851</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>916</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>21</v>
+      <c r="B97">
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97">
-        <v>23</v>
-      </c>
-      <c r="F97" t="s">
-        <v>169</v>
-      </c>
-      <c r="G97">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>170</v>
+      </c>
+      <c r="H97">
         <v>2</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>1626</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1691</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>21</v>
+      <c r="B98">
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98">
-        <v>23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>169</v>
-      </c>
-      <c r="G98">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98">
         <v>3</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>2664</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>2721</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>22</v>
+      <c r="B99">
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99">
-        <v>23</v>
-      </c>
-      <c r="F99" t="s">
-        <v>169</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>170</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>1986</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>2000</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>22</v>
+      <c r="B100">
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
-      </c>
-      <c r="E100">
-        <v>23</v>
-      </c>
-      <c r="F100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>170</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>1372</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>1392</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>22</v>
+      <c r="B101">
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101">
-        <v>23</v>
-      </c>
-      <c r="F101" t="s">
-        <v>169</v>
-      </c>
-      <c r="G101">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>170</v>
+      </c>
+      <c r="H101">
         <v>2</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>2817</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>2839</v>
       </c>
-      <c r="J101">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>22</v>
+      <c r="B102">
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102">
-        <v>23</v>
-      </c>
-      <c r="F102" t="s">
-        <v>169</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>170</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>1911</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1925</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>22</v>
+      <c r="B103">
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103">
-        <v>23</v>
-      </c>
-      <c r="F103" t="s">
-        <v>169</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>170</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>1838</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1879</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>22</v>
+      <c r="B104">
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104">
-        <v>23</v>
-      </c>
-      <c r="F104" t="s">
-        <v>169</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>170</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>3239</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>3259</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>22</v>
+      <c r="B105">
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
-      </c>
-      <c r="E105">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
-        <v>169</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>170</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>1039</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1061</v>
       </c>
-      <c r="J105">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>22</v>
+      <c r="B106">
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
-      </c>
-      <c r="E106">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
-        <v>169</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>170</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
         <v>2833</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>2849</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>23</v>
+      <c r="B107">
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107">
         <v>27</v>
       </c>
-      <c r="F107" t="s">
-        <v>170</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
+      <c r="G107" t="s">
+        <v>171</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>272</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>397</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>23</v>
+      <c r="B108">
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108">
         <v>27</v>
       </c>
-      <c r="F108" t="s">
-        <v>170</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
+      <c r="G108" t="s">
+        <v>171</v>
       </c>
       <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>1082</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>1113</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:11">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>23</v>
+      <c r="B109">
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
-      </c>
-      <c r="E109">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109">
         <v>27</v>
       </c>
-      <c r="F109" t="s">
-        <v>170</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
+      <c r="G109" t="s">
+        <v>171</v>
       </c>
       <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>1591</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>1748</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>23</v>
+      <c r="B110">
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110">
         <v>27</v>
       </c>
-      <c r="F110" t="s">
-        <v>170</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
+      <c r="G110" t="s">
+        <v>171</v>
       </c>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>1925</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>1960</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>23</v>
+      <c r="B111">
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111">
         <v>27</v>
       </c>
-      <c r="F111" t="s">
-        <v>170</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+      <c r="G111" t="s">
+        <v>171</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>607</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>662</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>23</v>
+      <c r="B112">
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112">
+        <v>24</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112">
         <v>27</v>
       </c>
-      <c r="F112" t="s">
-        <v>170</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+      <c r="G112" t="s">
+        <v>171</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>760</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>965</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:11">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>23</v>
+      <c r="B113">
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E113">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113">
         <v>27</v>
       </c>
-      <c r="F113" t="s">
-        <v>170</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
+      <c r="G113" t="s">
+        <v>171</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>876</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>1066</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>23</v>
+      <c r="B114">
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114">
         <v>27</v>
       </c>
-      <c r="F114" t="s">
-        <v>170</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+      <c r="G114" t="s">
+        <v>171</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>1751</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1871</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:11">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>23</v>
+      <c r="B115">
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>119</v>
-      </c>
-      <c r="E115">
+        <v>24</v>
+      </c>
+      <c r="E115" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115">
         <v>27</v>
       </c>
-      <c r="F115" t="s">
-        <v>170</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
+      <c r="G115" t="s">
+        <v>171</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>834</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>894</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>23</v>
+      <c r="B116">
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2378</v>
+      </c>
+      <c r="J116">
+        <v>2497</v>
+      </c>
+      <c r="K116">
         <v>119</v>
       </c>
-      <c r="E116">
-        <v>27</v>
-      </c>
-      <c r="F116" t="s">
-        <v>170</v>
-      </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>2378</v>
-      </c>
-      <c r="I116">
-        <v>2497</v>
-      </c>
-      <c r="J116">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>23</v>
+      <c r="B117">
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117">
         <v>27</v>
       </c>
-      <c r="F117" t="s">
-        <v>170</v>
-      </c>
-      <c r="G117">
+      <c r="G117" t="s">
+        <v>171</v>
+      </c>
+      <c r="H117">
         <v>3</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>3362</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>3425</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>23</v>
+      <c r="B118">
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>121</v>
+      </c>
+      <c r="F118">
         <v>27</v>
       </c>
-      <c r="F118" t="s">
-        <v>170</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
+      <c r="G118" t="s">
+        <v>171</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>3322</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>3429</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>23</v>
+      <c r="B119">
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>121</v>
-      </c>
-      <c r="E119">
+        <v>24</v>
+      </c>
+      <c r="E119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119">
         <v>27</v>
       </c>
-      <c r="F119" t="s">
-        <v>170</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
+      <c r="G119" t="s">
+        <v>171</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>1108</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>1248</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>23</v>
+      <c r="B120">
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
-      </c>
-      <c r="E120">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120">
         <v>27</v>
       </c>
-      <c r="F120" t="s">
-        <v>170</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
+      <c r="G120" t="s">
+        <v>171</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>778</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>849</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>23</v>
+      <c r="B121">
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
-      </c>
-      <c r="E121">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121">
         <v>27</v>
       </c>
-      <c r="F121" t="s">
-        <v>170</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
+      <c r="G121" t="s">
+        <v>171</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>263</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>318</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>23</v>
+      <c r="B122">
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
-      </c>
-      <c r="E122">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122">
         <v>27</v>
       </c>
-      <c r="F122" t="s">
-        <v>170</v>
-      </c>
-      <c r="G122">
+      <c r="G122" t="s">
+        <v>171</v>
+      </c>
+      <c r="H122">
         <v>2</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>843</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>1020</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>23</v>
+      <c r="B123">
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
-      </c>
-      <c r="E123">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123">
         <v>27</v>
       </c>
-      <c r="F123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123">
+      <c r="G123" t="s">
+        <v>171</v>
+      </c>
+      <c r="H123">
         <v>3</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>1524</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>1595</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>23</v>
+      <c r="B124">
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
-      </c>
-      <c r="E124">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124">
         <v>27</v>
       </c>
-      <c r="F124" t="s">
-        <v>170</v>
-      </c>
-      <c r="G124">
+      <c r="G124" t="s">
+        <v>171</v>
+      </c>
+      <c r="H124">
         <v>4</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>2179</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>2250</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>23</v>
+      <c r="B125">
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
-      </c>
-      <c r="E125">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125">
         <v>27</v>
       </c>
-      <c r="F125" t="s">
-        <v>170</v>
-      </c>
-      <c r="G125">
+      <c r="G125" t="s">
+        <v>171</v>
+      </c>
+      <c r="H125">
         <v>5</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>3428</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>3460</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>23</v>
+      <c r="B126">
+        <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>125</v>
+      </c>
+      <c r="F126">
         <v>27</v>
       </c>
-      <c r="F126" t="s">
-        <v>170</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
+      <c r="G126" t="s">
+        <v>171</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
         <v>751</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>859</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>24</v>
+      <c r="B127">
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
-      </c>
-      <c r="E127">
-        <v>23</v>
-      </c>
-      <c r="F127" t="s">
-        <v>169</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>170</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>2290</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>2299</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:11">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>24</v>
+      <c r="B128">
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128">
-        <v>23</v>
-      </c>
-      <c r="F128" t="s">
-        <v>169</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>170</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>1120</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>1129</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>24</v>
+      <c r="B129">
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129">
-        <v>23</v>
-      </c>
-      <c r="F129" t="s">
-        <v>169</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>128</v>
+      </c>
+      <c r="F129">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>170</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>1854</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>1868</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>24</v>
+      <c r="B130">
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>128</v>
-      </c>
-      <c r="E130">
-        <v>23</v>
-      </c>
-      <c r="F130" t="s">
-        <v>169</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>170</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>1214</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>1220</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>24</v>
+      <c r="B131">
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>129</v>
-      </c>
-      <c r="E131">
-        <v>23</v>
-      </c>
-      <c r="F131" t="s">
-        <v>169</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>170</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>227</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>236</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>24</v>
+      <c r="B132">
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E132">
-        <v>23</v>
-      </c>
-      <c r="F132" t="s">
-        <v>169</v>
-      </c>
-      <c r="G132">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>130</v>
+      </c>
+      <c r="F132">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>170</v>
+      </c>
+      <c r="H132">
         <v>2</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>1694</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>1700</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>24</v>
+      <c r="B133">
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
-      </c>
-      <c r="E133">
-        <v>23</v>
-      </c>
-      <c r="F133" t="s">
-        <v>169</v>
-      </c>
-      <c r="G133">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>170</v>
+      </c>
+      <c r="H133">
         <v>3</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>2162</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>2170</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>24</v>
+      <c r="B134">
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134">
-        <v>23</v>
-      </c>
-      <c r="F134" t="s">
-        <v>169</v>
-      </c>
-      <c r="G134">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134">
         <v>4</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>3290</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>3298</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>24</v>
+      <c r="B135">
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135">
-        <v>23</v>
-      </c>
-      <c r="F135" t="s">
-        <v>169</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>170</v>
       </c>
       <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>627</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>635</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>24</v>
+      <c r="B136">
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136">
-        <v>23</v>
-      </c>
-      <c r="F136" t="s">
-        <v>169</v>
-      </c>
-      <c r="G136">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>131</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>170</v>
+      </c>
+      <c r="H136">
         <v>2</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>1909</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>1916</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>25</v>
+      <c r="B137">
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
-      </c>
-      <c r="E137">
-        <v>23</v>
-      </c>
-      <c r="F137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E137" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>170</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>2282</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>2372</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>25</v>
+      <c r="B138">
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
-      </c>
-      <c r="E138">
-        <v>23</v>
-      </c>
-      <c r="F138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>170</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>3025</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>3140</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>25</v>
+      <c r="B139">
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
-      </c>
-      <c r="E139">
-        <v>23</v>
-      </c>
-      <c r="F139" t="s">
-        <v>169</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>170</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>3136</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>3224</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>26</v>
+      <c r="B140">
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140">
+        <v>27</v>
+      </c>
+      <c r="E140" t="s">
+        <v>135</v>
+      </c>
+      <c r="F140">
         <v>19</v>
       </c>
-      <c r="F140" t="s">
-        <v>171</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
+      <c r="G140" t="s">
+        <v>172</v>
       </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
         <v>3477</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>3527</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>26</v>
+      <c r="B141">
+        <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>136</v>
+      </c>
+      <c r="F141">
         <v>19</v>
       </c>
-      <c r="F141" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
+      <c r="G141" t="s">
+        <v>172</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>541</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>571</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>26</v>
+      <c r="B142">
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>136</v>
-      </c>
-      <c r="E142">
+        <v>27</v>
+      </c>
+      <c r="E142" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142">
         <v>19</v>
       </c>
-      <c r="F142" t="s">
-        <v>171</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
+      <c r="G142" t="s">
+        <v>172</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>2087</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>2155</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>26</v>
+      <c r="B143">
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143">
+        <v>27</v>
+      </c>
+      <c r="E143" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143">
         <v>19</v>
       </c>
-      <c r="F143" t="s">
-        <v>171</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
+      <c r="G143" t="s">
+        <v>172</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>1908</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>1963</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>26</v>
+      <c r="B144">
+        <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>138</v>
-      </c>
-      <c r="E144">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>139</v>
+      </c>
+      <c r="F144">
         <v>19</v>
       </c>
-      <c r="F144" t="s">
-        <v>171</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
+      <c r="G144" t="s">
+        <v>172</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>2196</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>2264</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>26</v>
+      <c r="B145">
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145">
         <v>19</v>
       </c>
-      <c r="F145" t="s">
-        <v>171</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
+      <c r="G145" t="s">
+        <v>172</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>463</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>509</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>27</v>
+      <c r="B146">
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" t="s">
-        <v>140</v>
-      </c>
-      <c r="E146">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>141</v>
+      </c>
+      <c r="F146">
         <v>19</v>
       </c>
-      <c r="F146" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
+      <c r="G146" t="s">
+        <v>172</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>299</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>377</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>27</v>
+      <c r="B147">
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>142</v>
+      </c>
+      <c r="F147">
         <v>19</v>
       </c>
-      <c r="F147" t="s">
-        <v>171</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
+      <c r="G147" t="s">
+        <v>172</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>2964</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>3041</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>27</v>
+      <c r="B148">
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" t="s">
-        <v>142</v>
-      </c>
-      <c r="E148">
+        <v>28</v>
+      </c>
+      <c r="E148" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
+      <c r="G148" t="s">
+        <v>172</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>3159</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>3240</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>28</v>
+      <c r="B149">
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
-      </c>
-      <c r="E149">
-        <v>23</v>
-      </c>
-      <c r="F149" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E149" t="s">
+        <v>144</v>
+      </c>
+      <c r="F149">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>173</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>94</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>123</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>28</v>
+      <c r="B150">
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150">
-        <v>23</v>
-      </c>
-      <c r="F150" t="s">
-        <v>172</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E150" t="s">
+        <v>145</v>
+      </c>
+      <c r="F150">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>173</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
         <v>1440</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>1470</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:11">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>28</v>
+      <c r="B151">
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>144</v>
-      </c>
-      <c r="E151">
-        <v>23</v>
-      </c>
-      <c r="F151" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151">
+        <v>29</v>
+      </c>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>173</v>
+      </c>
+      <c r="H151">
         <v>2</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>2498</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>2537</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:11">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>28</v>
+      <c r="B152">
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>172</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E152" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>173</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>1971</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>2009</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:11">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>28</v>
+      <c r="B153">
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
-      </c>
-      <c r="E153">
-        <v>23</v>
-      </c>
-      <c r="F153" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E153" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>173</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>390</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>425</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>28</v>
+      <c r="B154">
+        <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>146</v>
-      </c>
-      <c r="E154">
-        <v>23</v>
-      </c>
-      <c r="F154" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154">
+        <v>29</v>
+      </c>
+      <c r="E154" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>173</v>
+      </c>
+      <c r="H154">
         <v>2</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>1689</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>1738</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>28</v>
+      <c r="B155">
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>147</v>
-      </c>
-      <c r="E155">
-        <v>23</v>
-      </c>
-      <c r="F155" t="s">
-        <v>172</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E155" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>173</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>2226</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>2261</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:11">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>28</v>
+      <c r="B156">
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
-      </c>
-      <c r="E156">
-        <v>23</v>
-      </c>
-      <c r="F156" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E156" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>173</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
         <v>1393</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>1432</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>29</v>
+      <c r="B157">
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
-      </c>
-      <c r="E157">
-        <v>23</v>
-      </c>
-      <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F157">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>170</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>1288</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>1344</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>29</v>
+      <c r="B158">
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>150</v>
-      </c>
-      <c r="E158">
-        <v>23</v>
-      </c>
-      <c r="F158" t="s">
-        <v>169</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>151</v>
+      </c>
+      <c r="F158">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>170</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>2627</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>2677</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>29</v>
+      <c r="B159">
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
-      </c>
-      <c r="E159">
-        <v>23</v>
-      </c>
-      <c r="F159" t="s">
-        <v>169</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E159" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>170</v>
       </c>
       <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
         <v>2003</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>2084</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:11">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>29</v>
+      <c r="B160">
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>152</v>
-      </c>
-      <c r="E160">
-        <v>23</v>
-      </c>
-      <c r="F160" t="s">
-        <v>169</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E160" t="s">
+        <v>153</v>
+      </c>
+      <c r="F160">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>170</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
         <v>2553</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>2565</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>30</v>
+      <c r="B161">
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D161" t="s">
-        <v>153</v>
-      </c>
-      <c r="E161">
-        <v>23</v>
-      </c>
-      <c r="F161" t="s">
-        <v>169</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>170</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>3367</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>3425</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>30</v>
+      <c r="B162">
+        <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>154</v>
-      </c>
-      <c r="E162">
-        <v>23</v>
-      </c>
-      <c r="F162" t="s">
-        <v>169</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>155</v>
+      </c>
+      <c r="F162">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>170</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>3139</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>3213</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>30</v>
+      <c r="B163">
+        <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>155</v>
-      </c>
-      <c r="E163">
-        <v>23</v>
-      </c>
-      <c r="F163" t="s">
-        <v>169</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>156</v>
+      </c>
+      <c r="F163">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>170</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
         <v>1263</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>1335</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>31</v>
+      <c r="B164">
+        <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164" t="s">
-        <v>156</v>
-      </c>
-      <c r="E164">
-        <v>22</v>
-      </c>
-      <c r="F164" t="s">
-        <v>168</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E164" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>169</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>3962</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>4075</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>31</v>
+      <c r="B165">
+        <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
-      </c>
-      <c r="E165">
-        <v>22</v>
-      </c>
-      <c r="F165" t="s">
-        <v>168</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E165" t="s">
+        <v>158</v>
+      </c>
+      <c r="F165">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>169</v>
       </c>
       <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
         <v>325</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>345</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>31</v>
+      <c r="B166">
+        <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E166">
-        <v>22</v>
-      </c>
-      <c r="F166" t="s">
-        <v>168</v>
-      </c>
-      <c r="G166">
+        <v>32</v>
+      </c>
+      <c r="E166" t="s">
+        <v>158</v>
+      </c>
+      <c r="F166">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>169</v>
+      </c>
+      <c r="H166">
         <v>2</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>5104</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>5151</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>31</v>
+      <c r="B167">
+        <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167">
-        <v>22</v>
-      </c>
-      <c r="F167" t="s">
-        <v>168</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E167" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>169</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>2589</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>2660</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>31</v>
+      <c r="B168">
+        <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168" t="s">
-        <v>158</v>
-      </c>
-      <c r="E168">
-        <v>22</v>
-      </c>
-      <c r="F168" t="s">
-        <v>168</v>
-      </c>
-      <c r="G168">
+        <v>32</v>
+      </c>
+      <c r="E168" t="s">
+        <v>159</v>
+      </c>
+      <c r="F168">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>169</v>
+      </c>
+      <c r="H168">
         <v>2</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>6885</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>6947</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>62</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:11">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>31</v>
+      <c r="B169">
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>158</v>
-      </c>
-      <c r="E169">
-        <v>22</v>
-      </c>
-      <c r="F169" t="s">
-        <v>168</v>
-      </c>
-      <c r="G169">
+        <v>32</v>
+      </c>
+      <c r="E169" t="s">
+        <v>159</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>169</v>
+      </c>
+      <c r="H169">
         <v>3</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>8505</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>8532</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:11">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
-        <v>31</v>
+      <c r="B170">
+        <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D170" t="s">
-        <v>158</v>
-      </c>
-      <c r="E170">
-        <v>22</v>
-      </c>
-      <c r="F170" t="s">
-        <v>168</v>
-      </c>
-      <c r="G170">
+        <v>32</v>
+      </c>
+      <c r="E170" t="s">
+        <v>159</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>169</v>
+      </c>
+      <c r="H170">
         <v>4</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>9580</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>9664</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:11">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>9</v>
+      <c r="B171">
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>159</v>
-      </c>
-      <c r="E171">
-        <v>22</v>
-      </c>
-      <c r="F171" t="s">
-        <v>168</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E171" t="s">
+        <v>160</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>169</v>
       </c>
       <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
         <v>480</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>505</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:11">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>9</v>
+      <c r="B172">
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>159</v>
-      </c>
-      <c r="E172">
-        <v>22</v>
-      </c>
-      <c r="F172" t="s">
-        <v>168</v>
-      </c>
-      <c r="G172">
+        <v>33</v>
+      </c>
+      <c r="E172" t="s">
+        <v>160</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+      <c r="H172">
         <v>2</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>2451</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>2476</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:11">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>9</v>
+      <c r="B173">
+        <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>160</v>
-      </c>
-      <c r="E173">
-        <v>22</v>
-      </c>
-      <c r="F173" t="s">
-        <v>168</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E173" t="s">
+        <v>161</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>169</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>231</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>260</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>9</v>
+      <c r="B174">
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>160</v>
-      </c>
-      <c r="E174">
-        <v>22</v>
-      </c>
-      <c r="F174" t="s">
-        <v>168</v>
-      </c>
-      <c r="G174">
+        <v>33</v>
+      </c>
+      <c r="E174" t="s">
+        <v>161</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>169</v>
+      </c>
+      <c r="H174">
         <v>2</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>2883</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>2908</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:11">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>9</v>
+      <c r="B175">
+        <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" t="s">
+        <v>162</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>169</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1088</v>
+      </c>
+      <c r="J175">
+        <v>1120</v>
+      </c>
+      <c r="K175">
         <v>32</v>
       </c>
-      <c r="D175" t="s">
-        <v>161</v>
-      </c>
-      <c r="E175">
-        <v>22</v>
-      </c>
-      <c r="F175" t="s">
-        <v>168</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>1088</v>
-      </c>
-      <c r="I175">
-        <v>1120</v>
-      </c>
-      <c r="J175">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>9</v>
+      <c r="B176">
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>161</v>
-      </c>
-      <c r="E176">
-        <v>22</v>
-      </c>
-      <c r="F176" t="s">
-        <v>168</v>
-      </c>
-      <c r="G176">
+        <v>33</v>
+      </c>
+      <c r="E176" t="s">
+        <v>162</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>169</v>
+      </c>
+      <c r="H176">
         <v>2</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>1411</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>1438</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:11">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>9</v>
+      <c r="B177">
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
-      </c>
-      <c r="E177">
-        <v>22</v>
-      </c>
-      <c r="F177" t="s">
-        <v>168</v>
-      </c>
-      <c r="G177">
+        <v>33</v>
+      </c>
+      <c r="E177" t="s">
+        <v>162</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>169</v>
+      </c>
+      <c r="H177">
         <v>3</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>1745</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>1764</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:11">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>9</v>
+      <c r="B178">
+        <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
-      </c>
-      <c r="E178">
-        <v>22</v>
-      </c>
-      <c r="F178" t="s">
-        <v>168</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>163</v>
+      </c>
+      <c r="F178">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>169</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
         <v>1229</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>1253</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:11">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>9</v>
+      <c r="B179">
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>163</v>
-      </c>
-      <c r="E179">
-        <v>22</v>
-      </c>
-      <c r="F179" t="s">
-        <v>168</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>169</v>
       </c>
       <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
         <v>38</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>60</v>
       </c>
-      <c r="J179">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>9</v>
+      <c r="B180">
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>164</v>
-      </c>
-      <c r="E180">
-        <v>22</v>
-      </c>
-      <c r="F180" t="s">
-        <v>168</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>165</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>169</v>
       </c>
       <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
         <v>1745</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>1764</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:11">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>9</v>
+      <c r="B181">
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>165</v>
-      </c>
-      <c r="E181">
-        <v>22</v>
-      </c>
-      <c r="F181" t="s">
-        <v>168</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>166</v>
+      </c>
+      <c r="F181">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>169</v>
       </c>
       <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
         <v>3288</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>3304</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:11">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>9</v>
+      <c r="B182">
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>166</v>
-      </c>
-      <c r="E182">
-        <v>22</v>
-      </c>
-      <c r="F182" t="s">
-        <v>168</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E182" t="s">
+        <v>167</v>
+      </c>
+      <c r="F182">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>169</v>
       </c>
       <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
         <v>1939</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>1966</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:11">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>9</v>
+      <c r="B183">
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>167</v>
-      </c>
-      <c r="E183">
-        <v>22</v>
-      </c>
-      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" t="s">
         <v>168</v>
       </c>
-      <c r="G183">
-        <v>1</v>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>169</v>
       </c>
       <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
         <v>2804</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>2872</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>68</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,18 +106,18 @@
     <t>chb20</t>
   </si>
   <si>
+    <t>chb22</t>
+  </si>
+  <si>
+    <t>chb23</t>
+  </si>
+  <si>
+    <t>chb24</t>
+  </si>
+  <si>
     <t>chb21</t>
   </si>
   <si>
-    <t>chb22</t>
-  </si>
-  <si>
-    <t>chb23</t>
-  </si>
-  <si>
-    <t>chb24</t>
-  </si>
-  <si>
     <t>chb01_03</t>
   </si>
   <si>
@@ -523,19 +523,19 @@
     <t>chb24_21</t>
   </si>
   <si>
-    <t>['F7-T7', 'P3-O1', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
-  </si>
-  <si>
-    <t>['F7-T7', 'P3-O1', '-', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
-  </si>
-  <si>
-    <t>['F7-T7', 'P3-O1', 'FC2-Ref', '-', 'FP1-F7', 'FC6-Ref', 'P4-O2', 'CP6-Ref', 'FP1-F3', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'CZ-PZ', 'F3-C3', 'CP5-Ref', 'T7-P7', 'T8-P8', 'CP2-Ref', 'FP2-F4', 'FC5-Ref', 'CP1-Ref', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4', 'FC1-Ref']</t>
-  </si>
-  <si>
-    <t>['F7-T7', 'P3-O1', '-', 'FP1-F7', 'P4-O2', 'FP1-F3', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'CZ-PZ', 'F3-C3', 'T7-P7', 'T8-P8', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
-  </si>
-  <si>
-    <t>['F7-T7', 'P3-O1', 'FP1-F7', 'P4-O2', 'FP1-F3', 'T7-FT9', 'P7-O1', 'FZ-CZ', 'C3-P3', 'C4-P4', 'P7-T7', 'CZ-PZ', 'F3-C3', 'FT10-T8', 'FT9-FT10', 'T7-P7', 'T8-P8', '.', 'FP2-F4', 'FP2-F8', 'F8-T8', 'P8-O2', 'F4-C4']</t>
+    <t>['P4-O2', 'P7-O1', 'FP1-F7', 'C3-P3', 'FT9-FT10', 'FP2-F8', 'T8-P8', 'P7-T7', 'T7-P7', 'C4-P4', 'F8-T8', 'F7-T7', 'CZ-PZ', 'F4-C4', 'F3-C3', 'FT10-T8', 'FP2-F4', 'T7-FT9', 'FZ-CZ', 'P3-O1', 'FP1-F3', 'P8-O2']</t>
+  </si>
+  <si>
+    <t>['P4-O2', 'P7-O1', 'FP1-F7', 'C3-P3', 'FT9-FT10', 'FP2-F8', 'T8-P8', 'P7-T7', 'T7-P7', 'C4-P4', 'F8-T8', '-', 'F7-T7', 'CZ-PZ', 'F4-C4', 'F3-C3', 'FT10-T8', 'FP2-F4', 'T7-FT9', 'FZ-CZ', 'P3-O1', 'FP1-F3', 'P8-O2']</t>
+  </si>
+  <si>
+    <t>['P4-O2', 'P7-O1', 'FP1-F7', 'C3-P3', 'FP2-F8', 'T8-P8', 'FC5-Ref', 'FC2-Ref', 'CP6-Ref', 'FC6-Ref', 'CP1-Ref', 'CP5-Ref', 'T7-P7', 'C4-P4', 'F8-T8', '-', 'F7-T7', 'CZ-PZ', 'F4-C4', 'F3-C3', 'CP2-Ref', 'FP2-F4', 'FZ-CZ', 'P3-O1', 'FP1-F3', 'FC1-Ref', 'P8-O2']</t>
+  </si>
+  <si>
+    <t>['P4-O2', 'P7-O1', 'FP1-F7', 'C3-P3', 'FP2-F8', 'T8-P8', 'T7-P7', 'C4-P4', 'F8-T8', '-', 'F7-T7', 'CZ-PZ', 'F4-C4', 'F3-C3', 'FP2-F4', 'FZ-CZ', 'P3-O1', 'FP1-F3', 'P8-O2']</t>
+  </si>
+  <si>
+    <t>['P4-O2', 'P7-O1', 'FP1-F7', 'C3-P3', 'FT9-FT10', 'FP2-F8', 'T8-P8', 'P7-T7', 'T7-P7', 'C4-P4', 'F8-T8', 'F7-T7', 'CZ-PZ', 'F4-C4', 'F3-C3', '.', 'FT10-T8', 'FP2-F4', 'T7-FT9', 'FZ-CZ', 'P3-O1', 'FP1-F3', 'P8-O2']</t>
   </si>
 </sst>
 </file>
@@ -6361,13 +6361,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s">
         <v>150</v>
@@ -6396,13 +6396,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E158" t="s">
         <v>151</v>
@@ -6431,13 +6431,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E159" t="s">
         <v>152</v>
@@ -6466,13 +6466,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E160" t="s">
         <v>153</v>
@@ -6504,10 +6504,10 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161" t="s">
         <v>154</v>
@@ -6539,10 +6539,10 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E162" t="s">
         <v>155</v>
@@ -6574,10 +6574,10 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E163" t="s">
         <v>156</v>
@@ -6609,10 +6609,10 @@
         <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E164" t="s">
         <v>157</v>
@@ -6644,10 +6644,10 @@
         <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
         <v>158</v>
@@ -6679,10 +6679,10 @@
         <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E166" t="s">
         <v>158</v>
@@ -6714,10 +6714,10 @@
         <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E167" t="s">
         <v>159</v>
@@ -6749,10 +6749,10 @@
         <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E168" t="s">
         <v>159</v>
@@ -6784,10 +6784,10 @@
         <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E169" t="s">
         <v>159</v>
@@ -6819,10 +6819,10 @@
         <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
         <v>159</v>
@@ -6851,13 +6851,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E171" t="s">
         <v>160</v>
@@ -6886,13 +6886,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E172" t="s">
         <v>160</v>
@@ -6921,13 +6921,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E173" t="s">
         <v>161</v>
@@ -6956,13 +6956,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E174" t="s">
         <v>161</v>
@@ -6991,13 +6991,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E175" t="s">
         <v>162</v>
@@ -7026,13 +7026,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
         <v>162</v>
@@ -7061,13 +7061,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E177" t="s">
         <v>162</v>
@@ -7096,13 +7096,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E178" t="s">
         <v>163</v>
@@ -7131,13 +7131,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
         <v>164</v>
@@ -7166,13 +7166,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E180" t="s">
         <v>165</v>
@@ -7201,13 +7201,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E181" t="s">
         <v>166</v>
@@ -7236,13 +7236,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E182" t="s">
         <v>167</v>
@@ -7271,13 +7271,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E183" t="s">
         <v>168</v>
